--- a/опт и Краснодар/2023/11,23/06,11,23 Кр_Сч_ЗПФ/дв 06,11,23 счрсч зпф.xlsx
+++ b/опт и Краснодар/2023/11,23/06,11,23 Кр_Сч_ЗПФ/дв 06,11,23 счрсч зпф.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2023\11,23\06,11,23 Кр_Сч_ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A611A2-03FD-4B5E-A0A8-BFB034A01D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD36AF5-8395-44FB-834F-49050B0BEA15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,10 +262,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -2466,7 +2470,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z11" sqref="Z11"/>
+      <selection pane="bottomLeft" activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2677,11 +2681,11 @@
       </c>
       <c r="X5" s="20">
         <f>SUM(X6:X101)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="18">
         <f>SUM(Y6:Y101)</f>
-        <v>55.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2972,13 +2976,6 @@
         <f>VLOOKUP(A11,[1]TDSheet!$A:$W,23,0)</f>
         <v>3</v>
       </c>
-      <c r="X11" s="22">
-        <v>5</v>
-      </c>
-      <c r="Y11" s="2">
-        <f>X11*W11*G11</f>
-        <v>15</v>
-      </c>
     </row>
     <row r="12" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
@@ -3025,13 +3022,6 @@
         <f>VLOOKUP(A12,[1]TDSheet!$A:$W,23,0)</f>
         <v>5.5</v>
       </c>
-      <c r="X12" s="22">
-        <v>3</v>
-      </c>
-      <c r="Y12" s="2">
-        <f>X12*W12*G12</f>
-        <v>16.5</v>
-      </c>
     </row>
     <row r="13" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -3225,7 +3215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
@@ -3273,7 +3263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
@@ -3321,7 +3311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
@@ -3369,15 +3359,8 @@
         <f>VLOOKUP(A19,[1]TDSheet!$A:$W,23,0)</f>
         <v>6</v>
       </c>
-      <c r="X19" s="22">
-        <v>4</v>
-      </c>
-      <c r="Y19" s="2">
-        <f>X19*W19*G19</f>
-        <v>24</v>
-      </c>
     </row>
-    <row r="20" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
@@ -3427,7 +3410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
@@ -3475,7 +3458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>68</v>
       </c>
@@ -3519,7 +3502,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
@@ -3570,7 +3553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
@@ -3618,7 +3601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>31</v>
       </c>
@@ -3666,7 +3649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>32</v>
       </c>
@@ -3716,7 +3699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>33</v>
       </c>
@@ -3764,7 +3747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>34</v>
       </c>
@@ -3812,7 +3795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>35</v>
       </c>
@@ -3862,7 +3845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>36</v>
       </c>
@@ -3910,7 +3893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>37</v>
       </c>
@@ -3961,7 +3944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>38</v>
       </c>
